--- a/vector.xlsx
+++ b/vector.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>tfidf</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,76 @@
   </si>
   <si>
     <t>直没停过。”而对于网络上的谣言如何处理，她说：“这个现在还不是时候，我只是她的助理，也没法定这个事情。不过最终都是会解决的，请大家放心。”本报记者朱秦冀</t>
+  </si>
+  <si>
+    <t>公安机关制止犯罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中广网唐山６月１２日消息（记者汤一亮　庄胜春）据中国之声《新闻晚高峰》报道，今天（１２日）上午，公安机关２０１２年缉枪制爆专项行动“统一销毁非法枪爆物品活动”在河北唐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山正式启动，１０万余只非法枪支、２５０余吨炸药在全国１５０个城市被统一销毁。?；泼鳎合衷谖倚?布，全国缉枪制爆统一销毁行动开始！?Ｋ孀殴?安部副部长黄明一声令下，大量仿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">制式枪以及猎枪、火药枪、气枪在河北唐山钢铁厂被投入炼钢炉。与此同时，在全国各省区市１５０个城市，破案追缴和群众主动上缴的１０万余支非法枪支被集中销毁，在全国各指定场 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">所，２５０余吨炸药被分别销毁。公安部治安局局长刘绍武介绍，这次销毁的非法枪支来源于三个方面。?Ａ跎芪洌捍蚧髌瓢赴?括涉黑、涉恶的团伙犯罪、毒品犯罪，还有从境外非法走私 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">的枪支爆炸物。?Ｔ谙?毁现场，记者看到了被追缴和上缴的各式各样的枪支。?Ａ跎芪洌阂舶?括制式枪，有的是军用枪、仿制的制式抢，还有猎枪、私制的火药枪等等。按照我国的枪支管 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">理法，这些都是严厉禁止个人非法持有的。中国是世界上持枪犯罪的犯罪率最低的国家之一。?Ｖ忻懒?手破获特大跨国走私武器弹药案?＝?日，中美执法部门联手成功破获特大跨国走私武 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">器弹药案，在中国抓获犯罪嫌疑人２３名，缴获各类枪支９３支、子弹５万余发及大量枪支配件。在美国抓获犯罪嫌疑人３名，缴获各类枪支１２支。这是公安部与美国移民海关执法局通 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">关进口的货物中检查出来夹带，说明来源地是境外，或是说国外，这应该是一起特大跨国走私武器弹药的案件。?Ｉ虾Ｊ泄?安局和上海海关缉私局成立联合专案组，迅速开展案件侦查。专 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">案组于８月２６日在浙江台州ＵＰＳ取件处将犯罪嫌疑人王挺（男，３２岁，台州市人）抓获。王挺交代，他通过一境外网站上认识了上家林志富，２００９年１１月以来，林志富长期居 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">住美国，他通过互联网组建了一个走私、贩卖、私藏枪支弹药的群体，通过网络在国内寻找枪支弹药买家，并通过美国ＵＰＳ联邦速递公司将枪支弹药从纽约快递给多名类似王挺的中间人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">，再通过中间人发送给国内买家。?４税钢校?犯罪分子依托虚拟网络进行犯罪交易，隐蔽性强，涉案人员使用的身份、地址、联系方式都是虚构的，侦查难度很大。刘安成说，此案体现了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">是新型犯罪，特别是现代犯罪的新特点。?Ａ醢渤桑核?不受距离的限制、经常是跨国跨境，甚至是跨一个、数个、甚至数十个国家。这种犯罪手法的改变和新型犯罪的特点，要求我们各国 </t>
+  </si>
+  <si>
+    <t>警方充分合作。?Ｗ髡撸禾酪涣痢∽?胜春</t>
+  </si>
+  <si>
+    <t>２０１０年１１月６日，重庆大足县发生一起３死１伤恶性案件，犯罪嫌疑人经抢救无效死亡，与之搏斗身负重伤的民警正在抢救之中。图为市民自发探望受伤民警。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中广网遂川６月１３日消息（记者胡啸　通讯员梁路峰、刘会平）６月１１日，江西遂川县公安局在开展打击侵财性犯罪专项行动中，侦案民警通过千里追踪，数夜蹲守，在南昌县抓获４ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">名涉嫌诈骗的犯罪嫌疑人，缴获作案车辆２辆，破获系列“捡钱分钱”诈骗案。?＃玻埃保蹦辏保痹路菀岳矗?遂川县发生多起“捡钱分钱”诈骗案，受害人达１０余人，涉案金额近１０万余元 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">，且受害人多为中老年人，受害人群中，不仅财物受到损失，精神也受到损伤，严重影响了人民群众的安全感。?＃对拢慈眨?遂川县泉江镇银川大道发生一起“拾钱分钱”诈骗案，案件发生 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">后，刑警大队迅速展开侦查，发现一辆车牌号为赣Ｍ８３７０２的五菱面包车和一辆车牌号为赣Ｍ７６９０３的长安面包车纳入侦查员的视线，该局情报信息研判科迅即跟踪侦查，通过信 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">息研判、调查取证，一个由几名南昌县八一乡籍的犯罪分子组成的诈骗团伙浮出水面。因这几名犯罪嫌疑人都是南昌县人，且该团伙人员大都是南昌县八一乡某村人，该村民风彪悍，给抓 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">捕工作造成巨大的困难。６月５日，侵财性案件专项行动组民警不顾前一夜通宵工作未眠之劳累，由刑警大队副大队长刘会平立即带领王强伟、刘海平、李晨三名刑警又前往南昌开展抓捕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作，经过细致摸排，数夜蹲守，在南昌市警方的大力协助下，于６月８日成功抓获４名犯罪嫌疑人，并缴获作案车辆２辆。当晚，专案组民警连夜将这４名犯罪嫌疑人带回遂川突审，４ </t>
+  </si>
+  <si>
+    <t>名犯罪嫌疑人在铁一般的证据和事实面前主动交代其所犯下的犯罪事实。?Ｄ壳埃?４名犯罪嫌疑人都已刑事拘留，案件在进一步审理中。?Ｗ髡撸汉?啸　梁路峰　刘会平</t>
   </si>
 </sst>
 </file>
@@ -525,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,34 +1066,248 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0.191880072495559</v>
+      </c>
+      <c r="C56">
+        <v>88</v>
+      </c>
+      <c r="D56">
+        <v>0.10190595265861201</v>
+      </c>
+      <c r="E56">
+        <v>88</v>
+      </c>
+      <c r="F56">
+        <v>0.101756781287121</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>0.13516247055643199</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>8.2556124257320201E-2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>7.1704326025387996E-2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>79</v>
+      </c>
+      <c r="B58">
+        <v>0.120840974727428</v>
+      </c>
+      <c r="C58">
+        <v>118</v>
+      </c>
+      <c r="D58">
+        <v>5.5850633763091601E-2</v>
+      </c>
+      <c r="E58">
+        <v>118</v>
+      </c>
+      <c r="F58">
+        <v>4.7576415457082501E-2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>88</v>
+      </c>
+      <c r="B59">
+        <v>9.80793584935757E-2</v>
+      </c>
+      <c r="C59">
+        <v>79</v>
+      </c>
+      <c r="D59">
+        <v>3.6436251559801701E-2</v>
+      </c>
+      <c r="E59">
+        <v>79</v>
+      </c>
+      <c r="F59">
+        <v>4.2887975179100299E-2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>87</v>
+      </c>
+      <c r="B60">
+        <v>2.6851720315201999E-2</v>
+      </c>
+      <c r="C60">
+        <v>87</v>
+      </c>
+      <c r="D60">
+        <v>3.5383795092964403E-2</v>
+      </c>
+      <c r="E60">
+        <v>87</v>
+      </c>
+      <c r="F60">
+        <v>3.7505010523404297E-2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>118</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
